--- a/initial values.xlsx
+++ b/initial values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacco\Documents\SD Project Github\TB231B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quint\Desktop\TB\Jaar 2\Systeemdynamica\Project\TB231B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{247C6C68-684F-4572-8EB7-FE10A8AB3AAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72467870-9B8A-4980-8F90-AC4FB7E4F8AF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{B30B6579-CEDE-40CE-AD23-815E29A2A167}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>'16/'17</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>vwo 6</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80040ned&amp;D1=0,3,6-7,14-15,19-21,24-31,35-36,40,43,46,49&amp;D2=0&amp;D3=0-6&amp;D4=0&amp;D5=0&amp;D6=0&amp;D7=12,l&amp;HDR=G1,G3,G4,G5,G6,G2&amp;STB=T&amp;VW=T</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,15 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3E3ABB-46FD-470B-B83F-ACF3F4E81CD2}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -599,7 +603,7 @@
         <v>57136</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -609,8 +613,11 @@
       <c r="C17" s="2">
         <v>30142</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>46530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -620,8 +627,11 @@
       <c r="C18" s="2">
         <v>41342</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -632,7 +642,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -643,7 +653,7 @@
         <v>43764</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -654,7 +664,7 @@
         <v>44696</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -663,6 +673,11 @@
       </c>
       <c r="C22" s="2">
         <v>40017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
